--- a/gb1 test cases.xlsx
+++ b/gb1 test cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1fdd5290227790a/Desktop/gb test cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{94E4CBA7-7FFE-422A-BDB6-86039789362F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{926A55AA-5321-4C28-BB5D-BB2836EC2BB5}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="13_ncr:1_{94E4CBA7-7FFE-422A-BDB6-86039789362F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80DB7F6D-3439-4BB1-9412-A3A12177707D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="146">
   <si>
     <t>Version #</t>
   </si>
@@ -456,6 +456,42 @@
   </si>
   <si>
     <t>abvcd</t>
+  </si>
+  <si>
+    <t>BE4</t>
+  </si>
+  <si>
+    <t>BE5</t>
+  </si>
+  <si>
+    <t>BE6</t>
+  </si>
+  <si>
+    <t>Verify Amount field</t>
+  </si>
+  <si>
+    <t>verify amount field by enetring special characters</t>
+  </si>
+  <si>
+    <t>$%</t>
+  </si>
+  <si>
+    <t>Verify amount field</t>
+  </si>
+  <si>
+    <t>verify amount field by enetring characters</t>
+  </si>
+  <si>
+    <t>Enter special characters in amount no field</t>
+  </si>
+  <si>
+    <t>Enter characters in amount no field</t>
+  </si>
+  <si>
+    <t>abvcf</t>
+  </si>
+  <si>
+    <t>An error message "Special Characters are not allowed" must be displayed</t>
   </si>
 </sst>
 </file>
@@ -6973,10 +7009,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08CAD2C4-F9D8-42E8-B5FE-7D12DF59126F}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -7058,7 +7094,7 @@
       <c r="G3" s="40"/>
       <c r="H3" s="40"/>
     </row>
-    <row r="4" spans="1:8" ht="87.5">
+    <row r="4" spans="1:8" ht="50">
       <c r="A4" s="39" t="s">
         <v>122</v>
       </c>
@@ -7079,6 +7115,62 @@
       </c>
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
+    </row>
+    <row r="5" spans="1:8" ht="52" customHeight="1">
+      <c r="A5" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+    </row>
+    <row r="6" spans="1:8" ht="54.5" customHeight="1">
+      <c r="A6" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+    </row>
+    <row r="7" spans="1:8" ht="54.5" customHeight="1">
+      <c r="A7" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
     </row>
   </sheetData>
   <hyperlinks>
